--- a/Server_Tools/EXCEL_xz_mapper/DayZ_XZ_mapper_DEER ISLE.xlsx
+++ b/Server_Tools/EXCEL_xz_mapper/DayZ_XZ_mapper_DEER ISLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\DayZ-Modwork\Server_Tools\dayz_xy_mapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\DayZ-Modwork\Server_Tools\EXCEL_xz_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DEAA3A-6DB3-496C-AE0B-B08C8B65BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BCD794-C67E-4789-9464-BEAF6F0813A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{49736856-2605-4B12-9DAB-AC07616EC5DD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>X</t>
   </si>
@@ -172,27 +172,6 @@
     </r>
   </si>
   <si>
-    <t>ACCEPTS XMLSPAWNS &amp; POSITION STYLE COORDINATES:</t>
-  </si>
-  <si>
-    <t>(spacing important)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> &lt;pos x="11.11" y="2.2" z="33.33" a="-180.0" /&gt;  or  &lt;111, 22, 333&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (&lt;/&gt; optional)</t>
-    </r>
-  </si>
-  <si>
     <t>16384, 1, 16384</t>
   </si>
   <si>
@@ -224,6 +203,12 @@
   </si>
   <si>
     <t>Zero Zero</t>
+  </si>
+  <si>
+    <t>ACCEPTS XML, JSON, C, MAP STYLE COORDINATES</t>
+  </si>
+  <si>
+    <t>x="11.11" y="2.2" z="33.33" (whole line ok)   or   111, 22, 333 (coords only)   or   111 22 333 (coords only)</t>
   </si>
 </sst>
 </file>
@@ -293,13 +278,6 @@
       <family val="3"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color theme="2" tint="-0.249977111117893"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="2" tint="-0.249977111117893"/>
@@ -316,6 +294,13 @@
     <font>
       <sz val="8"/>
       <color theme="7" tint="0.79998168889431442"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -346,18 +331,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -375,35 +354,58 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -558,32 +560,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="7" tint="0.79998168889431442"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.89999084444715716"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1860,23 +1836,23 @@
     <sortCondition ref="D3:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EF034E6B-A9C0-4AA8-8204-10DB0B268AD2}" name="xyza" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{155A6623-2665-4DA8-A635-4249EA0DC427}" name="C" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{EF034E6B-A9C0-4AA8-8204-10DB0B268AD2}" name="xyza" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{155A6623-2665-4DA8-A635-4249EA0DC427}" name="C" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A4," ",""),".",""),",","Z"))),"++","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9266FBCB-0860-4CCD-B69D-027E09264BA2}" name="Style Detected" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{9266FBCB-0860-4CCD-B69D-027E09264BA2}" name="Style Detected" dataDxfId="4">
       <calculatedColumnFormula>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EEECD92E-F410-4D90-9D3A-84FECE72F9D0}" name="X" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{EEECD92E-F410-4D90-9D3A-84FECE72F9D0}" name="X" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAE701B4-8F7E-4555-90C8-468A5391EB98}" name="Y" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{DAE701B4-8F7E-4555-90C8-468A5391EB98}" name="Y" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57E00DBB-3350-4FB4-8EAD-A22397C2EAB6}" name="Z" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{57E00DBB-3350-4FB4-8EAD-A22397C2EAB6}" name="Z" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C92BEB41-F42A-442B-9A87-122C6F0F559C}" name="A/R" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{C92BEB41-F42A-442B-9A87-122C6F0F559C}" name="A/R" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2208,2979 +2184,2977 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="16" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="52.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="11" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
+      <c r="B1" s="8"/>
+      <c r="C1" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="11" t="str">
         <f t="shared" ref="B4:B27" si="0">IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A4," ",""),".",""),",","Z"))),"++","")</f>
         <v/>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6977.0630000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>1930.3869999999999</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>355.87470000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10146.64</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10834.52</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>246.47989999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>3249.0630000000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6321.3289999999997</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>158.30860000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6715.0469999999996</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>2017.3789999999999</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>85.987009999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6318</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>2197.5810000000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>137.16640000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>3365.828</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6539.1819999999998</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>316.55579999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>9110.75</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>9482.8799999999992</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>342.65769999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16" t="str">
+      <c r="B11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C11" s="7" t="str">
+      <c r="C11" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10123.67</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10900.57</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>158.04390000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10231.719999999999</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10932.5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>246.47989999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16" t="str">
+      <c r="B13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="7" t="str">
+      <c r="C13" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>3414.578</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6469.6559999999999</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>147.6086</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="7" t="str">
+      <c r="C14" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7213.0469999999996</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>1594.443</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>280.07240000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6033.2190000000001</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>14900.38</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>179.6326</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>5967.6559999999999</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>13991.95</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>180.148</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>8937.4529999999995</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>8836.6049999999996</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>141.86840000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>8278.8130000000001</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>8846.2540000000008</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>302.23930000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="7" t="str">
+      <c r="C19" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6441.8440000000001</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>1952.972</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>353.94099999999997</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="7" t="str">
+      <c r="C20" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6045.7340000000004</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>14435.41</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>87.328869999999995</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6910.8130000000001</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>2036.453</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>179.70859999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="16" t="str">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="7" t="str">
+      <c r="C22" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>16384</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>16384</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="16" t="str">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="7" t="str">
+      <c r="C23" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7456.78</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>358</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>11503.97</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="16" t="str">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="11" t="str">
+      <c r="C24" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10480.9</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>11337.2</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="16" t="str">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="11" t="str">
+      <c r="C25" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10606.3</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>11049</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="16" t="str">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="11" t="str">
+      <c r="C26" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10481.1</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10693.5</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="16" t="str">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>++</v>
       </c>
-      <c r="C27" s="11" t="str">
+      <c r="C27" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>C/MAP</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>1600</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>25.361799999999999</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>1800</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="17" t="str">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <f>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A28," ",""),".",""),",","Z"))),"++","")</f>
         <v>++</v>
       </c>
-      <c r="C28" s="11" t="str">
+      <c r="C28" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>C/MAP</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>11000.5</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>3213600.78</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>3600.78</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="17" t="str">
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="11" t="str">
         <f>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A29," ",""),".",""),",","Z"))),"++","")</f>
         <v/>
       </c>
-      <c r="C29" s="11" t="str">
+      <c r="C29" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>other</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
     </row>
     <row r="138" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
     </row>
     <row r="159" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
     </row>
     <row r="160" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
     </row>
     <row r="161" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
     </row>
     <row r="162" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
     </row>
     <row r="163" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
     </row>
     <row r="165" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
     </row>
     <row r="166" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
     </row>
     <row r="168" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
     </row>
     <row r="169" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
     </row>
     <row r="170" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
     </row>
     <row r="171" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
     </row>
     <row r="172" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
     </row>
     <row r="173" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
     </row>
     <row r="175" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
     </row>
     <row r="177" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
     </row>
     <row r="178" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
     </row>
     <row r="179" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
     </row>
     <row r="180" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
     </row>
     <row r="181" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
     </row>
     <row r="182" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
     </row>
     <row r="183" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
     </row>
     <row r="184" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
     </row>
     <row r="185" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
     </row>
     <row r="186" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
     </row>
     <row r="187" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
     </row>
     <row r="188" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
     </row>
     <row r="189" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
     </row>
     <row r="190" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
     </row>
     <row r="191" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
     </row>
     <row r="192" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
     </row>
     <row r="193" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
     </row>
     <row r="195" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
     </row>
     <row r="196" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
     </row>
     <row r="197" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
     </row>
     <row r="198" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
     </row>
     <row r="199" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
     </row>
     <row r="202" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
     </row>
     <row r="203" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
     </row>
     <row r="204" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
     </row>
     <row r="205" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
     </row>
     <row r="206" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
     </row>
     <row r="207" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
     </row>
     <row r="208" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
     </row>
     <row r="209" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
     </row>
     <row r="210" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
     </row>
     <row r="211" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
     </row>
     <row r="212" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
     </row>
     <row r="213" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
     </row>
     <row r="214" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
     </row>
     <row r="215" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
     </row>
     <row r="216" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
     </row>
     <row r="217" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
     </row>
     <row r="218" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
     </row>
     <row r="219" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
     </row>
     <row r="220" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
     </row>
     <row r="221" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
     </row>
     <row r="222" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
     </row>
     <row r="223" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
     </row>
     <row r="224" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
     </row>
     <row r="225" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
     </row>
     <row r="226" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
     </row>
     <row r="227" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
     </row>
     <row r="228" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
     </row>
     <row r="229" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
     </row>
     <row r="230" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
     </row>
     <row r="232" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
     </row>
     <row r="233" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
     </row>
     <row r="234" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
     </row>
     <row r="235" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
     </row>
     <row r="236" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
     </row>
     <row r="237" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
     </row>
     <row r="238" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
     </row>
     <row r="239" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
     </row>
     <row r="240" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
     </row>
     <row r="241" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
     </row>
     <row r="242" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
     </row>
     <row r="243" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
     </row>
     <row r="244" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
     </row>
     <row r="245" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
     </row>
     <row r="246" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
     </row>
     <row r="247" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
     </row>
     <row r="248" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
     </row>
     <row r="249" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
     </row>
     <row r="250" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
     </row>
     <row r="251" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
     </row>
     <row r="252" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
     </row>
     <row r="253" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
     </row>
     <row r="254" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
     </row>
     <row r="255" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
     </row>
     <row r="256" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
     </row>
     <row r="257" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
-      <c r="G257" s="8"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
     </row>
     <row r="258" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
     </row>
     <row r="259" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
     </row>
     <row r="260" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
     </row>
     <row r="261" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="8"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
     </row>
     <row r="262" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
     </row>
     <row r="263" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
     </row>
     <row r="264" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
     </row>
     <row r="265" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
     </row>
     <row r="266" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
     </row>
     <row r="267" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
     </row>
     <row r="268" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
     </row>
     <row r="269" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
     </row>
     <row r="270" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
     </row>
     <row r="271" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
     </row>
     <row r="272" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
     </row>
     <row r="273" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
     </row>
     <row r="274" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
     </row>
     <row r="275" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
     </row>
     <row r="276" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
     </row>
     <row r="277" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
     </row>
     <row r="278" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="8"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
     </row>
     <row r="279" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
-      <c r="G279" s="8"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
     </row>
     <row r="280" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="8"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
     </row>
     <row r="281" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
-      <c r="G281" s="8"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
     </row>
     <row r="282" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
-      <c r="G282" s="8"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
     </row>
     <row r="283" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="8"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
     </row>
     <row r="284" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
-      <c r="G284" s="8"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
     </row>
     <row r="285" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
     </row>
     <row r="286" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="8"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
     </row>
     <row r="287" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-      <c r="G287" s="8"/>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
     </row>
     <row r="288" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
-      <c r="G288" s="8"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
     </row>
     <row r="289" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
-      <c r="G289" s="8"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
     </row>
     <row r="290" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
-      <c r="G290" s="8"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
     </row>
     <row r="291" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
-      <c r="G291" s="8"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
     </row>
     <row r="292" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
-      <c r="G292" s="8"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
     </row>
     <row r="293" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
-      <c r="G293" s="8"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
     </row>
     <row r="294" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
-      <c r="G294" s="8"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
     </row>
     <row r="295" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
-      <c r="G295" s="8"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
     </row>
     <row r="296" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
-      <c r="G296" s="8"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
     </row>
     <row r="297" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-      <c r="G297" s="8"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
     </row>
     <row r="298" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
-      <c r="G298" s="8"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
     </row>
     <row r="299" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-      <c r="G299" s="8"/>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
     </row>
     <row r="300" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D300" s="8"/>
-      <c r="E300" s="8"/>
-      <c r="F300" s="8"/>
-      <c r="G300" s="8"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
     </row>
     <row r="301" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
-      <c r="G301" s="8"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
     </row>
     <row r="302" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="8"/>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
     </row>
     <row r="303" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="8"/>
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
     </row>
     <row r="304" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
-      <c r="G304" s="8"/>
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
     </row>
     <row r="305" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
-      <c r="G305" s="8"/>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
     </row>
     <row r="306" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
-      <c r="G306" s="8"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
     </row>
     <row r="307" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
-      <c r="G307" s="8"/>
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
     </row>
     <row r="308" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="8"/>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
     </row>
     <row r="309" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
     </row>
     <row r="310" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="8"/>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
     </row>
     <row r="311" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="8"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
     </row>
     <row r="312" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
-      <c r="G312" s="8"/>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
     </row>
     <row r="313" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
-      <c r="G313" s="8"/>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
     </row>
     <row r="314" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D314" s="8"/>
-      <c r="E314" s="8"/>
-      <c r="F314" s="8"/>
-      <c r="G314" s="8"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
     </row>
     <row r="315" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D315" s="8"/>
-      <c r="E315" s="8"/>
-      <c r="F315" s="8"/>
-      <c r="G315" s="8"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
     </row>
     <row r="316" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D316" s="8"/>
-      <c r="E316" s="8"/>
-      <c r="F316" s="8"/>
-      <c r="G316" s="8"/>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
     </row>
     <row r="317" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D317" s="8"/>
-      <c r="E317" s="8"/>
-      <c r="F317" s="8"/>
-      <c r="G317" s="8"/>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
     </row>
     <row r="318" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D318" s="8"/>
-      <c r="E318" s="8"/>
-      <c r="F318" s="8"/>
-      <c r="G318" s="8"/>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
     </row>
     <row r="319" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D319" s="8"/>
-      <c r="E319" s="8"/>
-      <c r="F319" s="8"/>
-      <c r="G319" s="8"/>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
     </row>
     <row r="320" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D320" s="8"/>
-      <c r="E320" s="8"/>
-      <c r="F320" s="8"/>
-      <c r="G320" s="8"/>
+      <c r="D320" s="6"/>
+      <c r="E320" s="6"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
     </row>
     <row r="321" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D321" s="8"/>
-      <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
-      <c r="G321" s="8"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
     </row>
     <row r="322" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
-      <c r="G322" s="8"/>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
     </row>
     <row r="323" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D323" s="8"/>
-      <c r="E323" s="8"/>
-      <c r="F323" s="8"/>
-      <c r="G323" s="8"/>
+      <c r="D323" s="6"/>
+      <c r="E323" s="6"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
     </row>
     <row r="324" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D324" s="8"/>
-      <c r="E324" s="8"/>
-      <c r="F324" s="8"/>
-      <c r="G324" s="8"/>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
     </row>
     <row r="325" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D325" s="8"/>
-      <c r="E325" s="8"/>
-      <c r="F325" s="8"/>
-      <c r="G325" s="8"/>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
     </row>
     <row r="326" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
-      <c r="F326" s="8"/>
-      <c r="G326" s="8"/>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
     </row>
     <row r="327" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D327" s="8"/>
-      <c r="E327" s="8"/>
-      <c r="F327" s="8"/>
-      <c r="G327" s="8"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
     </row>
     <row r="328" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D328" s="8"/>
-      <c r="E328" s="8"/>
-      <c r="F328" s="8"/>
-      <c r="G328" s="8"/>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
     </row>
     <row r="329" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D329" s="8"/>
-      <c r="E329" s="8"/>
-      <c r="F329" s="8"/>
-      <c r="G329" s="8"/>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
     </row>
     <row r="330" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D330" s="8"/>
-      <c r="E330" s="8"/>
-      <c r="F330" s="8"/>
-      <c r="G330" s="8"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
     </row>
     <row r="331" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D331" s="8"/>
-      <c r="E331" s="8"/>
-      <c r="F331" s="8"/>
-      <c r="G331" s="8"/>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
     </row>
     <row r="332" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D332" s="8"/>
-      <c r="E332" s="8"/>
-      <c r="F332" s="8"/>
-      <c r="G332" s="8"/>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
     </row>
     <row r="333" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D333" s="8"/>
-      <c r="E333" s="8"/>
-      <c r="F333" s="8"/>
-      <c r="G333" s="8"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
     </row>
     <row r="334" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D334" s="8"/>
-      <c r="E334" s="8"/>
-      <c r="F334" s="8"/>
-      <c r="G334" s="8"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
     </row>
     <row r="335" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D335" s="8"/>
-      <c r="E335" s="8"/>
-      <c r="F335" s="8"/>
-      <c r="G335" s="8"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
     </row>
     <row r="336" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D336" s="8"/>
-      <c r="E336" s="8"/>
-      <c r="F336" s="8"/>
-      <c r="G336" s="8"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
     </row>
     <row r="337" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D337" s="8"/>
-      <c r="E337" s="8"/>
-      <c r="F337" s="8"/>
-      <c r="G337" s="8"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
     </row>
     <row r="338" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D338" s="8"/>
-      <c r="E338" s="8"/>
-      <c r="F338" s="8"/>
-      <c r="G338" s="8"/>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
     </row>
     <row r="339" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D339" s="8"/>
-      <c r="E339" s="8"/>
-      <c r="F339" s="8"/>
-      <c r="G339" s="8"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
     </row>
     <row r="340" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D340" s="8"/>
-      <c r="E340" s="8"/>
-      <c r="F340" s="8"/>
-      <c r="G340" s="8"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
     </row>
     <row r="341" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D341" s="8"/>
-      <c r="E341" s="8"/>
-      <c r="F341" s="8"/>
-      <c r="G341" s="8"/>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
     </row>
     <row r="342" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D342" s="8"/>
-      <c r="E342" s="8"/>
-      <c r="F342" s="8"/>
-      <c r="G342" s="8"/>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
     </row>
     <row r="343" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D343" s="8"/>
-      <c r="E343" s="8"/>
-      <c r="F343" s="8"/>
-      <c r="G343" s="8"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
     </row>
     <row r="344" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D344" s="8"/>
-      <c r="E344" s="8"/>
-      <c r="F344" s="8"/>
-      <c r="G344" s="8"/>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
     </row>
     <row r="345" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D345" s="8"/>
-      <c r="E345" s="8"/>
-      <c r="F345" s="8"/>
-      <c r="G345" s="8"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
     </row>
     <row r="346" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D346" s="8"/>
-      <c r="E346" s="8"/>
-      <c r="F346" s="8"/>
-      <c r="G346" s="8"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
     </row>
     <row r="347" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D347" s="8"/>
-      <c r="E347" s="8"/>
-      <c r="F347" s="8"/>
-      <c r="G347" s="8"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
     </row>
     <row r="348" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D348" s="8"/>
-      <c r="E348" s="8"/>
-      <c r="F348" s="8"/>
-      <c r="G348" s="8"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
     </row>
     <row r="349" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D349" s="8"/>
-      <c r="E349" s="8"/>
-      <c r="F349" s="8"/>
-      <c r="G349" s="8"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
     </row>
     <row r="350" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D350" s="8"/>
-      <c r="E350" s="8"/>
-      <c r="F350" s="8"/>
-      <c r="G350" s="8"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
     </row>
     <row r="351" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D351" s="8"/>
-      <c r="E351" s="8"/>
-      <c r="F351" s="8"/>
-      <c r="G351" s="8"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
     </row>
     <row r="352" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D352" s="8"/>
-      <c r="E352" s="8"/>
-      <c r="F352" s="8"/>
-      <c r="G352" s="8"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
     </row>
     <row r="353" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D353" s="8"/>
-      <c r="E353" s="8"/>
-      <c r="F353" s="8"/>
-      <c r="G353" s="8"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
     </row>
     <row r="354" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D354" s="8"/>
-      <c r="E354" s="8"/>
-      <c r="F354" s="8"/>
-      <c r="G354" s="8"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
     </row>
     <row r="355" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D355" s="8"/>
-      <c r="E355" s="8"/>
-      <c r="F355" s="8"/>
-      <c r="G355" s="8"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
     </row>
     <row r="356" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D356" s="8"/>
-      <c r="E356" s="8"/>
-      <c r="F356" s="8"/>
-      <c r="G356" s="8"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
     </row>
     <row r="357" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D357" s="8"/>
-      <c r="E357" s="8"/>
-      <c r="F357" s="8"/>
-      <c r="G357" s="8"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
     </row>
     <row r="358" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D358" s="8"/>
-      <c r="E358" s="8"/>
-      <c r="F358" s="8"/>
-      <c r="G358" s="8"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
     </row>
     <row r="359" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D359" s="8"/>
-      <c r="E359" s="8"/>
-      <c r="F359" s="8"/>
-      <c r="G359" s="8"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
     </row>
     <row r="360" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D360" s="8"/>
-      <c r="E360" s="8"/>
-      <c r="F360" s="8"/>
-      <c r="G360" s="8"/>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
     </row>
     <row r="361" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D361" s="8"/>
-      <c r="E361" s="8"/>
-      <c r="F361" s="8"/>
-      <c r="G361" s="8"/>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
     </row>
     <row r="362" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D362" s="8"/>
-      <c r="E362" s="8"/>
-      <c r="F362" s="8"/>
-      <c r="G362" s="8"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
     </row>
     <row r="363" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D363" s="8"/>
-      <c r="E363" s="8"/>
-      <c r="F363" s="8"/>
-      <c r="G363" s="8"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
     </row>
     <row r="364" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D364" s="8"/>
-      <c r="E364" s="8"/>
-      <c r="F364" s="8"/>
-      <c r="G364" s="8"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
     </row>
     <row r="365" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D365" s="8"/>
-      <c r="E365" s="8"/>
-      <c r="F365" s="8"/>
-      <c r="G365" s="8"/>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
     </row>
     <row r="366" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D366" s="8"/>
-      <c r="E366" s="8"/>
-      <c r="F366" s="8"/>
-      <c r="G366" s="8"/>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
     </row>
     <row r="367" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D367" s="8"/>
-      <c r="E367" s="8"/>
-      <c r="F367" s="8"/>
-      <c r="G367" s="8"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
+      <c r="G367" s="6"/>
     </row>
     <row r="368" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D368" s="8"/>
-      <c r="E368" s="8"/>
-      <c r="F368" s="8"/>
-      <c r="G368" s="8"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
+      <c r="G368" s="6"/>
     </row>
     <row r="369" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D369" s="8"/>
-      <c r="E369" s="8"/>
-      <c r="F369" s="8"/>
-      <c r="G369" s="8"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+      <c r="F369" s="6"/>
+      <c r="G369" s="6"/>
     </row>
     <row r="370" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D370" s="8"/>
-      <c r="E370" s="8"/>
-      <c r="F370" s="8"/>
-      <c r="G370" s="8"/>
+      <c r="D370" s="6"/>
+      <c r="E370" s="6"/>
+      <c r="F370" s="6"/>
+      <c r="G370" s="6"/>
     </row>
     <row r="371" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D371" s="8"/>
-      <c r="E371" s="8"/>
-      <c r="F371" s="8"/>
-      <c r="G371" s="8"/>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+      <c r="F371" s="6"/>
+      <c r="G371" s="6"/>
     </row>
     <row r="372" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D372" s="8"/>
-      <c r="E372" s="8"/>
-      <c r="F372" s="8"/>
-      <c r="G372" s="8"/>
+      <c r="D372" s="6"/>
+      <c r="E372" s="6"/>
+      <c r="F372" s="6"/>
+      <c r="G372" s="6"/>
     </row>
     <row r="373" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D373" s="8"/>
-      <c r="E373" s="8"/>
-      <c r="F373" s="8"/>
-      <c r="G373" s="8"/>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
+      <c r="F373" s="6"/>
+      <c r="G373" s="6"/>
     </row>
     <row r="374" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D374" s="8"/>
-      <c r="E374" s="8"/>
-      <c r="F374" s="8"/>
-      <c r="G374" s="8"/>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
+      <c r="F374" s="6"/>
+      <c r="G374" s="6"/>
     </row>
     <row r="375" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D375" s="8"/>
-      <c r="E375" s="8"/>
-      <c r="F375" s="8"/>
-      <c r="G375" s="8"/>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
+      <c r="F375" s="6"/>
+      <c r="G375" s="6"/>
     </row>
     <row r="376" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D376" s="8"/>
-      <c r="E376" s="8"/>
-      <c r="F376" s="8"/>
-      <c r="G376" s="8"/>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+      <c r="F376" s="6"/>
+      <c r="G376" s="6"/>
     </row>
     <row r="377" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D377" s="8"/>
-      <c r="E377" s="8"/>
-      <c r="F377" s="8"/>
-      <c r="G377" s="8"/>
+      <c r="D377" s="6"/>
+      <c r="E377" s="6"/>
+      <c r="F377" s="6"/>
+      <c r="G377" s="6"/>
     </row>
     <row r="378" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D378" s="8"/>
-      <c r="E378" s="8"/>
-      <c r="F378" s="8"/>
-      <c r="G378" s="8"/>
+      <c r="D378" s="6"/>
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
     </row>
     <row r="379" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D379" s="8"/>
-      <c r="E379" s="8"/>
-      <c r="F379" s="8"/>
-      <c r="G379" s="8"/>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
+      <c r="F379" s="6"/>
+      <c r="G379" s="6"/>
     </row>
     <row r="380" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D380" s="8"/>
-      <c r="E380" s="8"/>
-      <c r="F380" s="8"/>
-      <c r="G380" s="8"/>
+      <c r="D380" s="6"/>
+      <c r="E380" s="6"/>
+      <c r="F380" s="6"/>
+      <c r="G380" s="6"/>
     </row>
     <row r="381" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D381" s="8"/>
-      <c r="E381" s="8"/>
-      <c r="F381" s="8"/>
-      <c r="G381" s="8"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+      <c r="F381" s="6"/>
+      <c r="G381" s="6"/>
     </row>
     <row r="382" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D382" s="8"/>
-      <c r="E382" s="8"/>
-      <c r="F382" s="8"/>
-      <c r="G382" s="8"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
     </row>
     <row r="383" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D383" s="8"/>
-      <c r="E383" s="8"/>
-      <c r="F383" s="8"/>
-      <c r="G383" s="8"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
     </row>
     <row r="384" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D384" s="8"/>
-      <c r="E384" s="8"/>
-      <c r="F384" s="8"/>
-      <c r="G384" s="8"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+      <c r="F384" s="6"/>
+      <c r="G384" s="6"/>
     </row>
     <row r="385" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D385" s="8"/>
-      <c r="E385" s="8"/>
-      <c r="F385" s="8"/>
-      <c r="G385" s="8"/>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
+      <c r="F385" s="6"/>
+      <c r="G385" s="6"/>
     </row>
     <row r="386" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D386" s="8"/>
-      <c r="E386" s="8"/>
-      <c r="F386" s="8"/>
-      <c r="G386" s="8"/>
+      <c r="D386" s="6"/>
+      <c r="E386" s="6"/>
+      <c r="F386" s="6"/>
+      <c r="G386" s="6"/>
     </row>
     <row r="387" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D387" s="8"/>
-      <c r="E387" s="8"/>
-      <c r="F387" s="8"/>
-      <c r="G387" s="8"/>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
     </row>
     <row r="388" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D388" s="8"/>
-      <c r="E388" s="8"/>
-      <c r="F388" s="8"/>
-      <c r="G388" s="8"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
+      <c r="F388" s="6"/>
+      <c r="G388" s="6"/>
     </row>
     <row r="389" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D389" s="8"/>
-      <c r="E389" s="8"/>
-      <c r="F389" s="8"/>
-      <c r="G389" s="8"/>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
+      <c r="F389" s="6"/>
+      <c r="G389" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server_Tools/EXCEL_xz_mapper/DayZ_XZ_mapper_DEER ISLE.xlsx
+++ b/Server_Tools/EXCEL_xz_mapper/DayZ_XZ_mapper_DEER ISLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\DayZ-Modwork\Server_Tools\EXCEL_xz_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BCD794-C67E-4789-9464-BEAF6F0813A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5387864-9055-4FA8-8745-B2FB7BB78CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{49736856-2605-4B12-9DAB-AC07616EC5DD}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{49736856-2605-4B12-9DAB-AC07616EC5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="xyza" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>X</t>
   </si>
@@ -210,6 +210,9 @@
   <si>
     <t>x="11.11" y="2.2" z="33.33" (whole line ok)   or   111, 22, 333 (coords only)   or   111 22 333 (coords only)</t>
   </si>
+  <si>
+    <t>Intentionally Blank for Copy Overflow</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +382,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -528,6 +531,31 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -795,7 +823,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>xyza!$D$4:$D$1000</c:f>
+              <c:f>xyza!$E$4:$E$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="997"/>
@@ -882,7 +910,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>xyza!$F$4:$F$1000</c:f>
+              <c:f>xyza!$G$4:$G$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="997"/>
@@ -1746,13 +1774,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
@@ -1782,13 +1810,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>21566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1830,13 +1858,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3B6C3E9-FCED-45EB-B4B6-C833C94DE562}" name="Table2" displayName="Table2" ref="A3:G29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G29" xr:uid="{F3B6C3E9-FCED-45EB-B4B6-C833C94DE562}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G45">
-    <sortCondition ref="D3:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3B6C3E9-FCED-45EB-B4B6-C833C94DE562}" name="Table2" displayName="Table2" ref="A3:H29" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:H29" xr:uid="{F3B6C3E9-FCED-45EB-B4B6-C833C94DE562}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H45">
+    <sortCondition ref="E3:E45"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EF034E6B-A9C0-4AA8-8204-10DB0B268AD2}" name="xyza" dataDxfId="6"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{EF034E6B-A9C0-4AA8-8204-10DB0B268AD2}" name="xyza" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E2D2D3E4-CDB0-467E-8DA2-D90D13A08DE9}" name="Intentionally Blank for Copy Overflow" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{155A6623-2665-4DA8-A635-4249EA0DC427}" name="C" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A4," ",""),".",""),",","Z"))),"++","")</calculatedColumnFormula>
     </tableColumn>
@@ -2178,2983 +2207,2989 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DA9F06-5616-49C8-A54C-0D4C4FAEE47A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:H389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="11" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="1.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4" style="11" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="str">
-        <f t="shared" ref="B4:B27" si="0">IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A4," ",""),".",""),",","Z"))),"++","")</f>
+      <c r="C4" s="11" t="str">
+        <f t="shared" ref="C4:C27" si="0">IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A4," ",""),".",""),",","Z"))),"++","")</f>
         <v/>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="D4" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6977.0630000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>1930.3869999999999</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>355.87470000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="C5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="D5" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10146.64</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10834.52</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>246.47989999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="C6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="D6" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>3249.0630000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6321.3289999999997</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>158.30860000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="C7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="D7" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6715.0469999999996</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>2017.3789999999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>85.987009999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="C8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="D8" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6318</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>2197.5810000000001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>137.16640000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="C9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="D9" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>3365.828</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6539.1819999999998</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>316.55579999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="C10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="D10" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>9110.75</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>9482.8799999999992</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>342.65769999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="C11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="D11" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10123.67</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10900.57</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>158.04390000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="C12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="D12" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10231.719999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10932.5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>246.47989999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="D13" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>3414.578</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6469.6559999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>147.6086</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="D14" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7213.0469999999996</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>1594.443</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>280.07240000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="D15" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6033.2190000000001</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>14900.38</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>179.6326</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="C16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="D16" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>5967.6559999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>13991.95</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>180.148</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="C17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="D17" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>8937.4529999999995</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>8836.6049999999996</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>141.86840000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="11" t="str">
+      <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="D18" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>8278.8130000000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>8846.2540000000008</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>302.23930000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11" t="str">
+      <c r="C19" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="D19" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6441.8440000000001</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>1952.972</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>353.94099999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="11" t="str">
+      <c r="C20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="D20" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6045.7340000000004</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>14435.41</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>87.328869999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="11" t="str">
+      <c r="C21" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="D21" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>6910.8130000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>2036.453</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>179.70859999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11" t="str">
+      <c r="C22" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="D22" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>16384</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>16384</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="11" t="str">
+      <c r="C23" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="D23" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7456.78</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>358</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>11503.97</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="11" t="str">
+      <c r="C24" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="D24" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10480.9</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>11337.2</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="11" t="str">
+      <c r="C25" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="D25" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10606.3</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>11049</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="11" t="str">
+      <c r="C26" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="D26" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10481.1</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10693.5</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="11" t="str">
+      <c r="C27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>++</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="D27" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>C/MAP</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>1600</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>25.361799999999999</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>1800</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="11" t="str">
+      <c r="C28" s="11" t="str">
         <f>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A28," ",""),".",""),",","Z"))),"++","")</f>
         <v>++</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="D28" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>C/MAP</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>11000.5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>3213600.78</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>3600.78</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="11" t="str">
+      <c r="C29" s="11" t="str">
         <f>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A29," ",""),".",""),",","Z"))),"++","")</f>
         <v/>
       </c>
-      <c r="C29" s="5" t="str">
+      <c r="D29" s="5" t="str">
         <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>other</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="6">
+      <c r="F29" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="6"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D32" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D35" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D42" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D47" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D48" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D50" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D51" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D52" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D53" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D54" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D55" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D56" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D57" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D58" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D59" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D60" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D61" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D62" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D63" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D64" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D66" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D67" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D68" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D69" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D70" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D71" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D72" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D73" s="6"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D74" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D75" s="6"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D76" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D77" s="6"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D78" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D79" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D80" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D81" s="6"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D82" s="6"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D83" s="6"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D84" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D85" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D86" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D87" s="6"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D88" s="6"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D89" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D90" s="6"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D91" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D92" s="6"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D93" s="6"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D94" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D95" s="6"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D96" s="6"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D97" s="6"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D98" s="6"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D99" s="6"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D100" s="6"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D101" s="6"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D102" s="6"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D103" s="6"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D104" s="6"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D105" s="6"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D106" s="6"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D107" s="6"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-    </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D108" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D109" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
-    </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D110" s="6"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D111" s="6"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D112" s="6"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D113" s="6"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-    </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D114" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-    </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D115" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-    </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D116" s="6"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-    </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D117" s="6"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D118" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-    </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D119" s="6"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D120" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
-    </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D121" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
-    </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D122" s="6"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-    </row>
-    <row r="123" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D123" s="6"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
-    </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D124" s="6"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
-    </row>
-    <row r="125" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D125" s="6"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-    </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D126" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
-    </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D127" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
-    </row>
-    <row r="128" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D128" s="6"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D129" s="6"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D130" s="6"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-    </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D131" s="6"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D132" s="6"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D133" s="6"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
-    </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D134" s="6"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-    </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D135" s="6"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-    </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D136" s="6"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-    </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D137" s="6"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D138" s="6"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
-    </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D139" s="6"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D140" s="6"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-    </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D141" s="6"/>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-    </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D142" s="6"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D143" s="6"/>
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D144" s="6"/>
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D145" s="6"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D146" s="6"/>
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D147" s="6"/>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-    </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D148" s="6"/>
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D149" s="6"/>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D150" s="6"/>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-    </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D151" s="6"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-    </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D152" s="6"/>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
-    </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D153" s="6"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D154" s="6"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-    </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D155" s="6"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
-    </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D156" s="6"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D157" s="6"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
-    </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D158" s="6"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-    </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D159" s="6"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D160" s="6"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
-    </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D161" s="6"/>
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
-    </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D162" s="6"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-    </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D163" s="6"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-    </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D164" s="6"/>
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D165" s="6"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
-    </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D166" s="6"/>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
-    </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D167" s="6"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-    </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D168" s="6"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-    </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D169" s="6"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-    </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D170" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-    </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D171" s="6"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-    </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D172" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
-    </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D173" s="6"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
-    </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D174" s="6"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-    </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D175" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-    </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D176" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
-    </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D177" s="6"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
-    </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D178" s="6"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-    </row>
-    <row r="179" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D179" s="6"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
-    </row>
-    <row r="180" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D180" s="6"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
-    </row>
-    <row r="181" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D181" s="6"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-    </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D182" s="6"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-    </row>
-    <row r="183" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D183" s="6"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-    </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D184" s="6"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
-    </row>
-    <row r="185" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D185" s="6"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-    </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D186" s="6"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-    </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D187" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
-    </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D188" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
-    </row>
-    <row r="189" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D189" s="6"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
-    </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D190" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
-    </row>
-    <row r="191" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D191" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
-    </row>
-    <row r="192" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D192" s="6"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
-    </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D193" s="6"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
-    </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D194" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
-    </row>
-    <row r="195" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D195" s="6"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
-    </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D196" s="6"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
-    </row>
-    <row r="197" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D197" s="6"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
-    </row>
-    <row r="198" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D198" s="6"/>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
-    </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D199" s="6"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
-    </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D200" s="6"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
-    </row>
-    <row r="201" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D201" s="6"/>
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
-    </row>
-    <row r="202" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D202" s="6"/>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
-    </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D203" s="6"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
-    </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D204" s="6"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
-    </row>
-    <row r="205" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D205" s="6"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
-    </row>
-    <row r="206" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D206" s="6"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
-    </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D207" s="6"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
-    </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D208" s="6"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
-    </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D209" s="6"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
-    </row>
-    <row r="210" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D210" s="6"/>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
-    </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D211" s="6"/>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
-    </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D212" s="6"/>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="212" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
-    </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D213" s="6"/>
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
-    </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D214" s="6"/>
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
-    </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D215" s="6"/>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
-    </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D216" s="6"/>
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
-    </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D217" s="6"/>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
-    </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D218" s="6"/>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
-    </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D219" s="6"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
-    </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D220" s="6"/>
+      <c r="H219" s="6"/>
+    </row>
+    <row r="220" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
-    </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D221" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
-    </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D222" s="6"/>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
-    </row>
-    <row r="223" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D223" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
-    </row>
-    <row r="224" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D224" s="6"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
-    </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D225" s="6"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
-    </row>
-    <row r="226" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D226" s="6"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
-    </row>
-    <row r="227" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D227" s="6"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
-    </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D228" s="6"/>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
-    </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D229" s="6"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
-    </row>
-    <row r="230" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D230" s="6"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
-    </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D231" s="6"/>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
-    </row>
-    <row r="232" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D232" s="6"/>
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
-    </row>
-    <row r="233" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D233" s="6"/>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
-    </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D234" s="6"/>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
-    </row>
-    <row r="235" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D235" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
-    </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D236" s="6"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
-    </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D237" s="6"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
-    </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D238" s="6"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
-    </row>
-    <row r="239" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D239" s="6"/>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
-    </row>
-    <row r="240" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D240" s="6"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
-    </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D241" s="6"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
-    </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D242" s="6"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
-    </row>
-    <row r="243" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D243" s="6"/>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
-    </row>
-    <row r="244" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D244" s="6"/>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
-    </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D245" s="6"/>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
-    </row>
-    <row r="246" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D246" s="6"/>
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
-    </row>
-    <row r="247" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D247" s="6"/>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
-    </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D248" s="6"/>
+      <c r="H247" s="6"/>
+    </row>
+    <row r="248" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
-    </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D249" s="6"/>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
-    </row>
-    <row r="250" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D250" s="6"/>
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
-    </row>
-    <row r="251" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D251" s="6"/>
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
-    </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D252" s="6"/>
+      <c r="H251" s="6"/>
+    </row>
+    <row r="252" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
-    </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D253" s="6"/>
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
-    </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D254" s="6"/>
+      <c r="H253" s="6"/>
+    </row>
+    <row r="254" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
-    </row>
-    <row r="255" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D255" s="6"/>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
-    </row>
-    <row r="256" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D256" s="6"/>
+      <c r="H255" s="6"/>
+    </row>
+    <row r="256" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
-    </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D257" s="6"/>
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
-    </row>
-    <row r="258" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D258" s="6"/>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
-    </row>
-    <row r="259" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D259" s="6"/>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
-    </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D260" s="6"/>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
-    </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D261" s="6"/>
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
-    </row>
-    <row r="262" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D262" s="6"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
-    </row>
-    <row r="263" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D263" s="6"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
-    </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D264" s="6"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
-    </row>
-    <row r="265" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D265" s="6"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
-    </row>
-    <row r="266" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D266" s="6"/>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
-    </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D267" s="6"/>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
-    </row>
-    <row r="268" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D268" s="6"/>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
-    </row>
-    <row r="269" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D269" s="6"/>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
-    </row>
-    <row r="270" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D270" s="6"/>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
-    </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D271" s="6"/>
+      <c r="H270" s="6"/>
+    </row>
+    <row r="271" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
-    </row>
-    <row r="272" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D272" s="6"/>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
-    </row>
-    <row r="273" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D273" s="6"/>
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
-    </row>
-    <row r="274" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D274" s="6"/>
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
-    </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D275" s="6"/>
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
-    </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D276" s="6"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
-    </row>
-    <row r="277" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D277" s="6"/>
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
-    </row>
-    <row r="278" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D278" s="6"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
-    </row>
-    <row r="279" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D279" s="6"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
-    </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D280" s="6"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
-    </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D281" s="6"/>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
-    </row>
-    <row r="282" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D282" s="6"/>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
-    </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D283" s="6"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
-    </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D284" s="6"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="284" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
-    </row>
-    <row r="285" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D285" s="6"/>
+      <c r="H284" s="6"/>
+    </row>
+    <row r="285" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
-    </row>
-    <row r="286" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D286" s="6"/>
+      <c r="H285" s="6"/>
+    </row>
+    <row r="286" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
-    </row>
-    <row r="287" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D287" s="6"/>
+      <c r="H286" s="6"/>
+    </row>
+    <row r="287" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
-    </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D288" s="6"/>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
-    </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D289" s="6"/>
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
-    </row>
-    <row r="290" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D290" s="6"/>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
-    </row>
-    <row r="291" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D291" s="6"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
-    </row>
-    <row r="292" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D292" s="6"/>
+      <c r="H291" s="6"/>
+    </row>
+    <row r="292" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
-    </row>
-    <row r="293" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D293" s="6"/>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
-    </row>
-    <row r="294" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D294" s="6"/>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
-    </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D295" s="6"/>
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
-    </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D296" s="6"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
-    </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D297" s="6"/>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
-    </row>
-    <row r="298" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D298" s="6"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
-    </row>
-    <row r="299" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D299" s="6"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
-    </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D300" s="6"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
-    </row>
-    <row r="301" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D301" s="6"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
-    </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D302" s="6"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
-    </row>
-    <row r="303" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D303" s="6"/>
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
-    </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D304" s="6"/>
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
-    </row>
-    <row r="305" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D305" s="6"/>
+      <c r="H304" s="6"/>
+    </row>
+    <row r="305" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
-    </row>
-    <row r="306" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D306" s="6"/>
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
-    </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D307" s="6"/>
+      <c r="H306" s="6"/>
+    </row>
+    <row r="307" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
-    </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D308" s="6"/>
+      <c r="H307" s="6"/>
+    </row>
+    <row r="308" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
-    </row>
-    <row r="309" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D309" s="6"/>
+      <c r="H308" s="6"/>
+    </row>
+    <row r="309" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
-    </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D310" s="6"/>
+      <c r="H309" s="6"/>
+    </row>
+    <row r="310" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
-    </row>
-    <row r="311" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D311" s="6"/>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
-    </row>
-    <row r="312" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D312" s="6"/>
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
-    </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D313" s="6"/>
+      <c r="H312" s="6"/>
+    </row>
+    <row r="313" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
-    </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D314" s="6"/>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
-    </row>
-    <row r="315" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D315" s="6"/>
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
-    </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D316" s="6"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
-    </row>
-    <row r="317" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D317" s="6"/>
+      <c r="H316" s="6"/>
+    </row>
+    <row r="317" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
-    </row>
-    <row r="318" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D318" s="6"/>
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
-    </row>
-    <row r="319" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D319" s="6"/>
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
-    </row>
-    <row r="320" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D320" s="6"/>
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
-    </row>
-    <row r="321" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D321" s="6"/>
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
-    </row>
-    <row r="322" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D322" s="6"/>
+      <c r="H321" s="6"/>
+    </row>
+    <row r="322" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
-    </row>
-    <row r="323" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D323" s="6"/>
+      <c r="H322" s="6"/>
+    </row>
+    <row r="323" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
-    </row>
-    <row r="324" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D324" s="6"/>
+      <c r="H323" s="6"/>
+    </row>
+    <row r="324" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
-    </row>
-    <row r="325" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D325" s="6"/>
+      <c r="H324" s="6"/>
+    </row>
+    <row r="325" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
-    </row>
-    <row r="326" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D326" s="6"/>
+      <c r="H325" s="6"/>
+    </row>
+    <row r="326" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
-    </row>
-    <row r="327" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D327" s="6"/>
+      <c r="H326" s="6"/>
+    </row>
+    <row r="327" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
-    </row>
-    <row r="328" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D328" s="6"/>
+      <c r="H327" s="6"/>
+    </row>
+    <row r="328" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
-    </row>
-    <row r="329" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D329" s="6"/>
+      <c r="H328" s="6"/>
+    </row>
+    <row r="329" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
-    </row>
-    <row r="330" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D330" s="6"/>
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
-    </row>
-    <row r="331" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D331" s="6"/>
+      <c r="H330" s="6"/>
+    </row>
+    <row r="331" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
-    </row>
-    <row r="332" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D332" s="6"/>
+      <c r="H331" s="6"/>
+    </row>
+    <row r="332" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
-    </row>
-    <row r="333" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D333" s="6"/>
+      <c r="H332" s="6"/>
+    </row>
+    <row r="333" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
-    </row>
-    <row r="334" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D334" s="6"/>
+      <c r="H333" s="6"/>
+    </row>
+    <row r="334" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
-    </row>
-    <row r="335" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D335" s="6"/>
+      <c r="H334" s="6"/>
+    </row>
+    <row r="335" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
-    </row>
-    <row r="336" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D336" s="6"/>
+      <c r="H335" s="6"/>
+    </row>
+    <row r="336" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
-    </row>
-    <row r="337" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D337" s="6"/>
+      <c r="H336" s="6"/>
+    </row>
+    <row r="337" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
-    </row>
-    <row r="338" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D338" s="6"/>
+      <c r="H337" s="6"/>
+    </row>
+    <row r="338" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
-    </row>
-    <row r="339" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D339" s="6"/>
+      <c r="H338" s="6"/>
+    </row>
+    <row r="339" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
-    </row>
-    <row r="340" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D340" s="6"/>
+      <c r="H339" s="6"/>
+    </row>
+    <row r="340" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
-    </row>
-    <row r="341" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D341" s="6"/>
+      <c r="H340" s="6"/>
+    </row>
+    <row r="341" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
-    </row>
-    <row r="342" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D342" s="6"/>
+      <c r="H341" s="6"/>
+    </row>
+    <row r="342" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
-    </row>
-    <row r="343" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D343" s="6"/>
+      <c r="H342" s="6"/>
+    </row>
+    <row r="343" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
-    </row>
-    <row r="344" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D344" s="6"/>
+      <c r="H343" s="6"/>
+    </row>
+    <row r="344" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
-    </row>
-    <row r="345" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D345" s="6"/>
+      <c r="H344" s="6"/>
+    </row>
+    <row r="345" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
-    </row>
-    <row r="346" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D346" s="6"/>
+      <c r="H345" s="6"/>
+    </row>
+    <row r="346" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
-    </row>
-    <row r="347" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D347" s="6"/>
+      <c r="H346" s="6"/>
+    </row>
+    <row r="347" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
-    </row>
-    <row r="348" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D348" s="6"/>
+      <c r="H347" s="6"/>
+    </row>
+    <row r="348" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
-    </row>
-    <row r="349" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D349" s="6"/>
+      <c r="H348" s="6"/>
+    </row>
+    <row r="349" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
-    </row>
-    <row r="350" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D350" s="6"/>
+      <c r="H349" s="6"/>
+    </row>
+    <row r="350" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
-    </row>
-    <row r="351" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D351" s="6"/>
+      <c r="H350" s="6"/>
+    </row>
+    <row r="351" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
-    </row>
-    <row r="352" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D352" s="6"/>
+      <c r="H351" s="6"/>
+    </row>
+    <row r="352" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
-    </row>
-    <row r="353" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D353" s="6"/>
+      <c r="H352" s="6"/>
+    </row>
+    <row r="353" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
-    </row>
-    <row r="354" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D354" s="6"/>
+      <c r="H353" s="6"/>
+    </row>
+    <row r="354" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
-    </row>
-    <row r="355" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D355" s="6"/>
+      <c r="H354" s="6"/>
+    </row>
+    <row r="355" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
-    </row>
-    <row r="356" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D356" s="6"/>
+      <c r="H355" s="6"/>
+    </row>
+    <row r="356" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
-    </row>
-    <row r="357" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D357" s="6"/>
+      <c r="H356" s="6"/>
+    </row>
+    <row r="357" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
-    </row>
-    <row r="358" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D358" s="6"/>
+      <c r="H357" s="6"/>
+    </row>
+    <row r="358" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
-    </row>
-    <row r="359" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D359" s="6"/>
+      <c r="H358" s="6"/>
+    </row>
+    <row r="359" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
-    </row>
-    <row r="360" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D360" s="6"/>
+      <c r="H359" s="6"/>
+    </row>
+    <row r="360" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
-    </row>
-    <row r="361" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D361" s="6"/>
+      <c r="H360" s="6"/>
+    </row>
+    <row r="361" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
-    </row>
-    <row r="362" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D362" s="6"/>
+      <c r="H361" s="6"/>
+    </row>
+    <row r="362" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
-    </row>
-    <row r="363" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D363" s="6"/>
+      <c r="H362" s="6"/>
+    </row>
+    <row r="363" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
-    </row>
-    <row r="364" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D364" s="6"/>
+      <c r="H363" s="6"/>
+    </row>
+    <row r="364" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
-    </row>
-    <row r="365" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D365" s="6"/>
+      <c r="H364" s="6"/>
+    </row>
+    <row r="365" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
-    </row>
-    <row r="366" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D366" s="6"/>
+      <c r="H365" s="6"/>
+    </row>
+    <row r="366" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
-    </row>
-    <row r="367" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D367" s="6"/>
+      <c r="H366" s="6"/>
+    </row>
+    <row r="367" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
-    </row>
-    <row r="368" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D368" s="6"/>
+      <c r="H367" s="6"/>
+    </row>
+    <row r="368" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
-    </row>
-    <row r="369" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D369" s="6"/>
+      <c r="H368" s="6"/>
+    </row>
+    <row r="369" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
-    </row>
-    <row r="370" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D370" s="6"/>
+      <c r="H369" s="6"/>
+    </row>
+    <row r="370" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
-    </row>
-    <row r="371" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D371" s="6"/>
+      <c r="H370" s="6"/>
+    </row>
+    <row r="371" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
-    </row>
-    <row r="372" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D372" s="6"/>
+      <c r="H371" s="6"/>
+    </row>
+    <row r="372" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
-    </row>
-    <row r="373" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D373" s="6"/>
+      <c r="H372" s="6"/>
+    </row>
+    <row r="373" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
-    </row>
-    <row r="374" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D374" s="6"/>
+      <c r="H373" s="6"/>
+    </row>
+    <row r="374" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
-    </row>
-    <row r="375" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D375" s="6"/>
+      <c r="H374" s="6"/>
+    </row>
+    <row r="375" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
-    </row>
-    <row r="376" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D376" s="6"/>
+      <c r="H375" s="6"/>
+    </row>
+    <row r="376" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
-    </row>
-    <row r="377" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D377" s="6"/>
+      <c r="H376" s="6"/>
+    </row>
+    <row r="377" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
-    </row>
-    <row r="378" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D378" s="6"/>
+      <c r="H377" s="6"/>
+    </row>
+    <row r="378" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
-    </row>
-    <row r="379" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D379" s="6"/>
+      <c r="H378" s="6"/>
+    </row>
+    <row r="379" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
-    </row>
-    <row r="380" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D380" s="6"/>
+      <c r="H379" s="6"/>
+    </row>
+    <row r="380" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
-    </row>
-    <row r="381" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D381" s="6"/>
+      <c r="H380" s="6"/>
+    </row>
+    <row r="381" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
-    </row>
-    <row r="382" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D382" s="6"/>
+      <c r="H381" s="6"/>
+    </row>
+    <row r="382" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
-    </row>
-    <row r="383" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D383" s="6"/>
+      <c r="H382" s="6"/>
+    </row>
+    <row r="383" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
-    </row>
-    <row r="384" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D384" s="6"/>
+      <c r="H383" s="6"/>
+    </row>
+    <row r="384" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
-    </row>
-    <row r="385" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D385" s="6"/>
+      <c r="H384" s="6"/>
+    </row>
+    <row r="385" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
-    </row>
-    <row r="386" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D386" s="6"/>
+      <c r="H385" s="6"/>
+    </row>
+    <row r="386" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
-    </row>
-    <row r="387" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D387" s="6"/>
+      <c r="H386" s="6"/>
+    </row>
+    <row r="387" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
-    </row>
-    <row r="388" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D388" s="6"/>
+      <c r="H387" s="6"/>
+    </row>
+    <row r="388" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
-    </row>
-    <row r="389" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D389" s="6"/>
+      <c r="H388" s="6"/>
+    </row>
+    <row r="389" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
+      <c r="H389" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server_Tools/EXCEL_xz_mapper/DayZ_XZ_mapper_DEER ISLE.xlsx
+++ b/Server_Tools/EXCEL_xz_mapper/DayZ_XZ_mapper_DEER ISLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\DayZ-Modwork\Server_Tools\EXCEL_xz_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5387864-9055-4FA8-8745-B2FB7BB78CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C4BD8-5AC0-4553-BAD5-1CC4719F65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{49736856-2605-4B12-9DAB-AC07616EC5DD}"/>
   </bookViews>
@@ -104,74 +104,6 @@
     <t>&lt;pos x="6910.813" z="2036.453" a="179.7086" /&gt;</t>
   </si>
   <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>XY</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> mapper</t>
-    </r>
-  </si>
-  <si>
     <t>16384, 1, 16384</t>
   </si>
   <si>
@@ -213,12 +145,15 @@
   <si>
     <t>Intentionally Blank for Copy Overflow</t>
   </si>
+  <si>
+    <t>DayZ XZ Mapper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,14 +196,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="4" tint="0.39997558519241921"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="16"/>
       <color theme="4" tint="0.39997558519241921"/>
       <name val="Consolas"/>
@@ -354,28 +281,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2225,12 +2152,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
       <c r="D1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="14" t="s">
@@ -2244,7 +2171,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="9"/>
       <c r="D2" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4"/>
@@ -2256,13 +2183,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -2274,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2801,7 +2728,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2830,7 +2757,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2859,7 +2786,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2888,7 +2815,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2917,7 +2844,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2946,7 +2873,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2975,7 +2902,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="11" t="str">
         <f>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A28," ",""),".",""),",","Z"))),"++","")</f>
@@ -3004,7 +2931,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="11" t="str">
         <f>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A29," ",""),".",""),",","Z"))),"++","")</f>

--- a/Server_Tools/EXCEL_xz_mapper/DayZ_XZ_mapper_DEER ISLE.xlsx
+++ b/Server_Tools/EXCEL_xz_mapper/DayZ_XZ_mapper_DEER ISLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\DayZ-Modwork\Server_Tools\EXCEL_xz_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C4BD8-5AC0-4553-BAD5-1CC4719F65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651957D2-FF70-496D-BD4E-ACA9731844CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{49736856-2605-4B12-9DAB-AC07616EC5DD}"/>
   </bookViews>
